--- a/data/extracted_data/raw_round2/Bricelj_1991_Fig_5.xlsx
+++ b/data/extracted_data/raw_round2/Bricelj_1991_Fig_5.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{67FADBFF-6981-6F49-B396-CB6EFFCD0E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBA5FF34-2B25-CF4E-9B2A-37FE723F3DB3}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="13_ncr:1_{67FADBFF-6981-6F49-B396-CB6EFFCD0E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE571D7E-55C8-C148-B11A-2840D2AB0850}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{D6F30F50-AFB6-0144-B5DD-DC15C95D0306}"/>
+    <workbookView xWindow="3360" yWindow="1520" windowWidth="28800" windowHeight="16140" xr2:uid="{D6F30F50-AFB6-0144-B5DD-DC15C95D0306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="11">
   <si>
     <t>treatment</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>GtLI22</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Depuration</t>
+  </si>
+  <si>
+    <t>Uptake</t>
   </si>
 </sst>
 </file>
@@ -422,926 +431,1118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883F5F32-8002-CD40-80EE-3AF60A7FADBB}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5.2830188679245103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5.2830188679245103</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>40.943396226414997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5">
         <v>54.150943396226403</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>9</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6">
         <v>125.471698113207</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>228.49056603773499</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>298.49056603773499</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
         <v>17</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>298.66819834376798</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
         <v>18</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>88.153908301353198</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
         <v>19</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>58.339224399111203</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
         <v>22</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>40.0916481518884</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>27.508331650171598</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
         <v>28</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>24.892698444758501</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
         <v>31</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>8.0413047869116596</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
         <v>35</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>16.886740052514501</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.74347925856046204</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
         <v>3</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.87045205374671697</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1">
-        <v>5</v>
-      </c>
-      <c r="D20">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20">
         <v>1.67741770990031</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1">
-        <v>9</v>
-      </c>
-      <c r="D21">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9</v>
+      </c>
+      <c r="E21">
         <v>13.5922082557813</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
         <v>11</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>19.494148542872399</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1">
         <v>13</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>20.525993727849801</v>
       </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1">
         <v>15</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>19.520919915351399</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
         <v>17</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>22.124668635915999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
         <v>18</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>17.8359463758236</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
         <v>19</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>12.8649549344845</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1">
         <v>22</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>9.5644929182761498</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
         <v>25</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>10.0674089222146</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1">
         <v>28</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>7.64432325986518</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
         <v>31</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>5.2212375975157199</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1">
         <v>35</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>3.2907672498674501</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="D33">
-        <v>10.326162387230999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>10.730077211249201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
         <v>2</v>
       </c>
-      <c r="D34">
-        <v>23.167244968771598</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>23.357546124487701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="1">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>32.827203331020101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>32.819705577149598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="1">
-        <v>6</v>
-      </c>
-      <c r="D36">
-        <v>46.147120055516901</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>46.0734825966899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
         <v>8</v>
       </c>
-      <c r="D37">
-        <v>54.891047883414203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>55.114585715039397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>39.935452099125797</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
         <v>13</v>
       </c>
-      <c r="D38">
-        <v>40.1248859387021</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1">
-        <v>14</v>
-      </c>
-      <c r="D39">
-        <v>32.972034853554199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>35.719084721318303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1">
         <v>15</v>
       </c>
-      <c r="D40">
-        <v>42.1162620099837</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>23.920009849270901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1">
         <v>17</v>
       </c>
-      <c r="D41">
-        <v>45.836002218604001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>16.962555182299401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1">
         <v>19</v>
       </c>
-      <c r="D42">
-        <v>34.744413232899703</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>15.689361028545299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="1">
-        <v>12</v>
-      </c>
-      <c r="D43">
-        <v>15.9975666923118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1">
+        <v>21</v>
+      </c>
+      <c r="E43">
+        <v>11.257189088414799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1">
         <v>24</v>
       </c>
-      <c r="D44">
-        <v>13.061494695031399</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>3.4523453576516299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="1">
         <v>26</v>
       </c>
-      <c r="D45">
-        <v>12.834982376411199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>3.2302091211284298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1">
         <v>29</v>
       </c>
-      <c r="D46">
-        <v>7.4287452362634303</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>3.6359639094570402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1">
         <v>33</v>
       </c>
-      <c r="D47">
-        <v>12.8993934622747</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>4.2459151907416901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="1">
         <v>38</v>
       </c>
-      <c r="D48">
-        <v>10.4743160795118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>2.9574194910037401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1">
         <v>1</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.53030776170153604</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1">
         <v>2</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.76041775094549102</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="1">
-        <v>4</v>
-      </c>
-      <c r="D51">
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51">
         <v>1.52638700947225</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="1">
-        <v>6</v>
-      </c>
-      <c r="D52">
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
+        <v>6</v>
+      </c>
+      <c r="E52">
         <v>2.7348114222268398</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1">
         <v>8</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>3.3637972311855902</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="1">
-        <v>10</v>
-      </c>
-      <c r="D54">
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="1">
+        <v>10</v>
+      </c>
+      <c r="E54">
         <v>3.2591513132785099</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1">
         <v>13</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>2.3511379636065501</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1">
         <v>15</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>1.56965905647935</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1">
         <v>17</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>1.0983621165944799</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="1">
         <v>19</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>1.0354845033773501</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1">
         <v>21</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>0.74433691564633198</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="1">
         <v>24</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>0.22548967188864499</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="1">
         <v>26</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>0.195262792065445</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1">
         <v>29</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>0.231335436382755</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1">
         <v>33</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>0.28558698248052899</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="1">
         <v>38</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>0.19362312641465701</v>
       </c>
     </row>
